--- a/output_Brandon Ingram.xlsx
+++ b/output_Brandon Ingram.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Date_x</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -701,8 +701,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1731974400</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -870,8 +872,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1731715200</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-11-16</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -1037,8 +1041,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1731628800</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-11-15</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -1204,8 +1210,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>1731456000</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-11-13</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1373,8 +1381,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>1731024000</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1542,8 +1552,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>1730851200</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -1709,8 +1721,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>1730678400</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -1876,8 +1890,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1730592000</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-11-03</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -2043,8 +2059,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>1730419200</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -2210,8 +2228,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>1730246400</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2379,8 +2399,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>1729987200</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-10-27</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2548,8 +2570,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>1729814400</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2717,8 +2741,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>1729641600</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -2884,8 +2910,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>1713052800</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-04-14</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -2921,28 +2949,20 @@
       <c r="K15" t="n">
         <v>0.333</v>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
       </c>
       <c r="Q15" t="n">
         <v>5</v>
@@ -2950,10 +2970,8 @@
       <c r="R15" t="n">
         <v>0</v>
       </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S15" t="n">
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -2961,23 +2979,17 @@
       <c r="U15" t="n">
         <v>2</v>
       </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="V15" t="n">
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>13</v>
       </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>-28</t>
-        </is>
+      <c r="X15" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-28</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
@@ -3069,8 +3081,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>1710979200</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-03-21</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3108,28 +3122,20 @@
       <c r="K16" t="n">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
         <v>4</v>
@@ -3137,10 +3143,8 @@
       <c r="R16" t="n">
         <v>3</v>
       </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S16" t="n">
+        <v>1</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -3148,23 +3152,17 @@
       <c r="U16" t="n">
         <v>2</v>
       </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V16" t="n">
+        <v>2</v>
       </c>
       <c r="W16" t="n">
         <v>14</v>
       </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>9.9</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
+      <c r="X16" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>-8</v>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
@@ -3256,8 +3254,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>1710547200</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -3293,30 +3293,20 @@
       <c r="K17" t="n">
         <v>0.2</v>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
       </c>
       <c r="Q17" t="n">
         <v>7</v>
@@ -3324,10 +3314,8 @@
       <c r="R17" t="n">
         <v>2</v>
       </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S17" t="n">
+        <v>1</v>
       </c>
       <c r="T17" t="n">
         <v>4</v>
@@ -3335,23 +3323,17 @@
       <c r="U17" t="n">
         <v>1</v>
       </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V17" t="n">
+        <v>2</v>
       </c>
       <c r="W17" t="n">
         <v>22</v>
       </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>17.6</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>+12</t>
-        </is>
+      <c r="X17" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>12</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
@@ -3443,8 +3425,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>1710460800</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -3480,30 +3464,20 @@
       <c r="K18" t="n">
         <v>0.5</v>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>.750</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="L18" t="n">
+        <v>3</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
       </c>
       <c r="Q18" t="n">
         <v>5</v>
@@ -3511,10 +3485,8 @@
       <c r="R18" t="n">
         <v>7</v>
       </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S18" t="n">
+        <v>1</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -3522,23 +3494,17 @@
       <c r="U18" t="n">
         <v>0</v>
       </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V18" t="n">
+        <v>3</v>
       </c>
       <c r="W18" t="n">
         <v>13</v>
       </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>12.0</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="X18" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
@@ -3630,8 +3596,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>1710288000</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -3667,30 +3635,20 @@
       <c r="K19" t="n">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>.800</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="L19" t="n">
+        <v>4</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
       </c>
       <c r="Q19" t="n">
         <v>5</v>
@@ -3698,10 +3656,8 @@
       <c r="R19" t="n">
         <v>5</v>
       </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S19" t="n">
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -3709,23 +3665,17 @@
       <c r="U19" t="n">
         <v>2</v>
       </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V19" t="n">
+        <v>2</v>
       </c>
       <c r="W19" t="n">
         <v>20</v>
       </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>16.6</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="X19" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1</v>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
@@ -3817,8 +3767,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>1710028800</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-03-10</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -3856,30 +3808,20 @@
       <c r="K20" t="n">
         <v>0</v>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>.500</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>7</v>
       </c>
       <c r="Q20" t="n">
         <v>7</v>
@@ -3887,10 +3829,8 @@
       <c r="R20" t="n">
         <v>10</v>
       </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S20" t="n">
+        <v>1</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -3898,23 +3838,17 @@
       <c r="U20" t="n">
         <v>2</v>
       </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V20" t="n">
+        <v>2</v>
       </c>
       <c r="W20" t="n">
         <v>7</v>
       </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="X20" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1</v>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
@@ -4006,8 +3940,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>1709856000</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -4045,30 +3981,20 @@
       <c r="K21" t="n">
         <v>1</v>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>.750</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="L21" t="n">
+        <v>3</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>7</v>
       </c>
       <c r="Q21" t="n">
         <v>7</v>
@@ -4076,10 +4002,8 @@
       <c r="R21" t="n">
         <v>5</v>
       </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S21" t="n">
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>2</v>
@@ -4087,23 +4011,17 @@
       <c r="U21" t="n">
         <v>4</v>
       </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V21" t="n">
+        <v>3</v>
       </c>
       <c r="W21" t="n">
         <v>17</v>
       </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>13.8</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
+      <c r="X21" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>-13</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
@@ -4195,8 +4113,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>1709596800</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -4234,30 +4154,20 @@
       <c r="K22" t="n">
         <v>0</v>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="L22" t="n">
+        <v>2</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
       </c>
       <c r="Q22" t="n">
         <v>3</v>
@@ -4265,10 +4175,8 @@
       <c r="R22" t="n">
         <v>6</v>
       </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S22" t="n">
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -4276,23 +4184,17 @@
       <c r="U22" t="n">
         <v>2</v>
       </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V22" t="n">
+        <v>3</v>
       </c>
       <c r="W22" t="n">
         <v>12</v>
       </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>11.4</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="X22" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8</v>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
@@ -4384,8 +4286,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>1709251200</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -4421,30 +4325,20 @@
       <c r="K23" t="n">
         <v>0.5</v>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>.778</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="L23" t="n">
+        <v>7</v>
+      </c>
+      <c r="M23" t="n">
+        <v>9</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>7</v>
       </c>
       <c r="Q23" t="n">
         <v>8</v>
@@ -4452,10 +4346,8 @@
       <c r="R23" t="n">
         <v>6</v>
       </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S23" t="n">
+        <v>1</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -4463,23 +4355,17 @@
       <c r="U23" t="n">
         <v>2</v>
       </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V23" t="n">
+        <v>3</v>
       </c>
       <c r="W23" t="n">
         <v>34</v>
       </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>28.5</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>+45</t>
-        </is>
+      <c r="X23" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>45</v>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
@@ -4571,8 +4457,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>1709078400</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -4610,30 +4498,20 @@
       <c r="K24" t="n">
         <v>0.2</v>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="L24" t="n">
+        <v>13</v>
+      </c>
+      <c r="M24" t="n">
+        <v>13</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
       </c>
       <c r="Q24" t="n">
         <v>6</v>
@@ -4641,10 +4519,8 @@
       <c r="R24" t="n">
         <v>4</v>
       </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S24" t="n">
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -4652,23 +4528,17 @@
       <c r="U24" t="n">
         <v>1</v>
       </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V24" t="n">
+        <v>1</v>
       </c>
       <c r="W24" t="n">
         <v>30</v>
       </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>22.8</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="X24" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>-3</v>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
@@ -4760,8 +4630,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>1708992000</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -4799,30 +4671,20 @@
       <c r="K25" t="n">
         <v>0.429</v>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="L25" t="n">
+        <v>3</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>6</v>
       </c>
       <c r="Q25" t="n">
         <v>6</v>
@@ -4830,10 +4692,8 @@
       <c r="R25" t="n">
         <v>5</v>
       </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S25" t="n">
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>2</v>
@@ -4841,23 +4701,17 @@
       <c r="U25" t="n">
         <v>5</v>
       </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V25" t="n">
+        <v>3</v>
       </c>
       <c r="W25" t="n">
         <v>24</v>
       </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>15.5</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="X25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15</v>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
@@ -4949,8 +4803,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>1708819200</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-02-25</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -4986,30 +4842,20 @@
       <c r="K26" t="n">
         <v>0.333</v>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>.750</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="L26" t="n">
+        <v>6</v>
+      </c>
+      <c r="M26" t="n">
+        <v>8</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
         <v>3</v>
@@ -5017,10 +4863,8 @@
       <c r="R26" t="n">
         <v>6</v>
       </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="S26" t="n">
+        <v>3</v>
       </c>
       <c r="T26" t="n">
         <v>1</v>
@@ -5028,23 +4872,17 @@
       <c r="U26" t="n">
         <v>9</v>
       </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V26" t="n">
+        <v>1</v>
       </c>
       <c r="W26" t="n">
         <v>22</v>
       </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>12.2</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="X26" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
@@ -5136,8 +4974,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>1707868800</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-02-14</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -5173,30 +5013,20 @@
       <c r="K27" t="n">
         <v>0.667</v>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>.667</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="L27" t="n">
+        <v>4</v>
+      </c>
+      <c r="M27" t="n">
+        <v>6</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
       </c>
       <c r="Q27" t="n">
         <v>3</v>
@@ -5204,10 +5034,8 @@
       <c r="R27" t="n">
         <v>8</v>
       </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="S27" t="n">
+        <v>2</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -5215,23 +5043,17 @@
       <c r="U27" t="n">
         <v>1</v>
       </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V27" t="n">
+        <v>4</v>
       </c>
       <c r="W27" t="n">
         <v>18</v>
       </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>16.8</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
+      <c r="X27" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>-15</v>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
@@ -5323,8 +5145,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>1707696000</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -5362,30 +5186,20 @@
       <c r="K28" t="n">
         <v>0.333</v>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>.000</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
       </c>
       <c r="Q28" t="n">
         <v>2</v>
@@ -5393,10 +5207,8 @@
       <c r="R28" t="n">
         <v>6</v>
       </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S28" t="n">
+        <v>1</v>
       </c>
       <c r="T28" t="n">
         <v>1</v>
@@ -5404,23 +5216,17 @@
       <c r="U28" t="n">
         <v>6</v>
       </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V28" t="n">
+        <v>4</v>
       </c>
       <c r="W28" t="n">
         <v>16</v>
       </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="X28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>5</v>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
@@ -5512,8 +5318,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>1707523200</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-02-10</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -5551,30 +5359,20 @@
       <c r="K29" t="n">
         <v>0</v>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>.250</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
       </c>
       <c r="Q29" t="n">
         <v>4</v>
@@ -5582,10 +5380,8 @@
       <c r="R29" t="n">
         <v>9</v>
       </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S29" t="n">
+        <v>1</v>
       </c>
       <c r="T29" t="n">
         <v>1</v>
@@ -5593,23 +5389,17 @@
       <c r="U29" t="n">
         <v>5</v>
       </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V29" t="n">
+        <v>3</v>
       </c>
       <c r="W29" t="n">
         <v>17</v>
       </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>8.1</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="X29" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>4</v>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
@@ -5701,8 +5491,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>1707436800</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-02-09</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -5740,30 +5532,20 @@
       <c r="K30" t="n">
         <v>0</v>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="L30" t="n">
+        <v>8</v>
+      </c>
+      <c r="M30" t="n">
+        <v>8</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" t="n">
+        <v>6</v>
       </c>
       <c r="Q30" t="n">
         <v>7</v>
@@ -5771,10 +5553,8 @@
       <c r="R30" t="n">
         <v>7</v>
       </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S30" t="n">
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>3</v>
@@ -5782,23 +5562,17 @@
       <c r="U30" t="n">
         <v>2</v>
       </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V30" t="n">
+        <v>3</v>
       </c>
       <c r="W30" t="n">
         <v>22</v>
       </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>19.2</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="X30" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
@@ -5890,8 +5664,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>1707264000</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-02-07</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -5929,30 +5705,20 @@
       <c r="K31" t="n">
         <v>0</v>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>.500</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" t="n">
+        <v>7</v>
       </c>
       <c r="Q31" t="n">
         <v>8</v>
@@ -5960,10 +5726,8 @@
       <c r="R31" t="n">
         <v>6</v>
       </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S31" t="n">
+        <v>1</v>
       </c>
       <c r="T31" t="n">
         <v>1</v>
@@ -5971,23 +5735,17 @@
       <c r="U31" t="n">
         <v>2</v>
       </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="V31" t="n">
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>15</v>
       </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>14.3</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>+14</t>
-        </is>
+      <c r="X31" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>14</v>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
@@ -6079,8 +5837,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>1707091200</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -6116,30 +5876,20 @@
       <c r="K32" t="n">
         <v>0.727</v>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
       </c>
       <c r="Q32" t="n">
         <v>6</v>
@@ -6147,10 +5897,8 @@
       <c r="R32" t="n">
         <v>9</v>
       </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S32" t="n">
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>1</v>
@@ -6158,23 +5906,17 @@
       <c r="U32" t="n">
         <v>0</v>
       </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V32" t="n">
+        <v>1</v>
       </c>
       <c r="W32" t="n">
         <v>41</v>
       </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>41.5</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>+37</t>
-        </is>
+      <c r="X32" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>37</v>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
@@ -6266,8 +6008,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>1706832000</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -6305,30 +6049,20 @@
       <c r="K33" t="n">
         <v>0.5</v>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="L33" t="n">
+        <v>4</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
       </c>
       <c r="Q33" t="n">
         <v>4</v>
@@ -6336,10 +6070,8 @@
       <c r="R33" t="n">
         <v>6</v>
       </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="S33" t="n">
+        <v>2</v>
       </c>
       <c r="T33" t="n">
         <v>1</v>
@@ -6347,23 +6079,17 @@
       <c r="U33" t="n">
         <v>2</v>
       </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V33" t="n">
+        <v>4</v>
       </c>
       <c r="W33" t="n">
         <v>19</v>
       </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>16.6</t>
-        </is>
-      </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
+      <c r="X33" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>-6</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
@@ -6455,8 +6181,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>1706659200</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-01-31</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -6494,30 +6222,20 @@
       <c r="K34" t="n">
         <v>0</v>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>.857</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="L34" t="n">
+        <v>6</v>
+      </c>
+      <c r="M34" t="n">
+        <v>7</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="O34" t="n">
+        <v>4</v>
+      </c>
+      <c r="P34" t="n">
+        <v>6</v>
       </c>
       <c r="Q34" t="n">
         <v>10</v>
@@ -6525,10 +6243,8 @@
       <c r="R34" t="n">
         <v>4</v>
       </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S34" t="n">
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>2</v>
@@ -6536,23 +6252,17 @@
       <c r="U34" t="n">
         <v>6</v>
       </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V34" t="n">
+        <v>4</v>
       </c>
       <c r="W34" t="n">
         <v>24</v>
       </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>15.1</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="X34" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>4</v>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
@@ -6644,8 +6354,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>1706486400</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -6683,30 +6395,20 @@
       <c r="K35" t="n">
         <v>0.25</v>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>.667</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="L35" t="n">
+        <v>2</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" t="n">
+        <v>6</v>
       </c>
       <c r="Q35" t="n">
         <v>7</v>
@@ -6714,10 +6416,8 @@
       <c r="R35" t="n">
         <v>6</v>
       </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S35" t="n">
+        <v>1</v>
       </c>
       <c r="T35" t="n">
         <v>1</v>
@@ -6725,23 +6425,17 @@
       <c r="U35" t="n">
         <v>2</v>
       </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V35" t="n">
+        <v>2</v>
       </c>
       <c r="W35" t="n">
         <v>28</v>
       </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>21.2</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="X35" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>2</v>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
@@ -6833,8 +6527,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>1706313600</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-01-27</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -6872,30 +6568,20 @@
       <c r="K36" t="n">
         <v>1</v>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>.750</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="L36" t="n">
+        <v>6</v>
+      </c>
+      <c r="M36" t="n">
+        <v>8</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>6</v>
       </c>
       <c r="Q36" t="n">
         <v>6</v>
@@ -6903,10 +6589,8 @@
       <c r="R36" t="n">
         <v>1</v>
       </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S36" t="n">
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -6914,23 +6598,17 @@
       <c r="U36" t="n">
         <v>1</v>
       </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="V36" t="n">
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>26</v>
       </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>17.7</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>-22</t>
-        </is>
+      <c r="X36" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>-22</v>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
@@ -7022,8 +6700,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>1706227200</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-01-26</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -7059,30 +6739,20 @@
       <c r="K37" t="n">
         <v>0</v>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>.400</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="L37" t="n">
+        <v>2</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
       </c>
       <c r="Q37" t="n">
         <v>4</v>
@@ -7090,10 +6760,8 @@
       <c r="R37" t="n">
         <v>9</v>
       </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S37" t="n">
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>2</v>
@@ -7101,23 +6769,17 @@
       <c r="U37" t="n">
         <v>5</v>
       </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V37" t="n">
+        <v>3</v>
       </c>
       <c r="W37" t="n">
         <v>12</v>
       </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>9.2</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
+      <c r="X37" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>-15</v>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
@@ -7209,8 +6871,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>1705622400</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-01-19</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -7246,30 +6910,20 @@
       <c r="K38" t="n">
         <v>0.2</v>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>.667</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="L38" t="n">
+        <v>6</v>
+      </c>
+      <c r="M38" t="n">
+        <v>9</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>7</v>
       </c>
       <c r="Q38" t="n">
         <v>7</v>
@@ -7277,10 +6931,8 @@
       <c r="R38" t="n">
         <v>11</v>
       </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S38" t="n">
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -7288,23 +6940,17 @@
       <c r="U38" t="n">
         <v>2</v>
       </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V38" t="n">
+        <v>2</v>
       </c>
       <c r="W38" t="n">
         <v>17</v>
       </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>17.1</t>
-        </is>
-      </c>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="X38" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>-10</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
@@ -7396,8 +7042,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>1705276800</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -7435,30 +7083,20 @@
       <c r="K39" t="n">
         <v>0</v>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>.750</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="L39" t="n">
+        <v>6</v>
+      </c>
+      <c r="M39" t="n">
+        <v>8</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
       </c>
       <c r="Q39" t="n">
         <v>5</v>
@@ -7466,10 +7104,8 @@
       <c r="R39" t="n">
         <v>5</v>
       </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S39" t="n">
+        <v>1</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -7477,23 +7113,17 @@
       <c r="U39" t="n">
         <v>1</v>
       </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V39" t="n">
+        <v>3</v>
       </c>
       <c r="W39" t="n">
         <v>12</v>
       </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
-      </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>-19</t>
-        </is>
+      <c r="X39" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>-19</v>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
@@ -7585,8 +7215,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>1705017600</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-01-12</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -7624,30 +7256,20 @@
       <c r="K40" t="n">
         <v>0</v>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>.500</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
       </c>
       <c r="Q40" t="n">
         <v>4</v>
@@ -7655,10 +7277,8 @@
       <c r="R40" t="n">
         <v>6</v>
       </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S40" t="n">
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -7666,23 +7286,17 @@
       <c r="U40" t="n">
         <v>2</v>
       </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V40" t="n">
+        <v>2</v>
       </c>
       <c r="W40" t="n">
         <v>9</v>
       </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>5.1</t>
-        </is>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
+      <c r="X40" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>-14</v>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
@@ -7774,8 +7388,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>1704844800</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -7813,30 +7429,20 @@
       <c r="K41" t="n">
         <v>0.333</v>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="L41" t="n">
+        <v>2</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
       </c>
       <c r="Q41" t="n">
         <v>5</v>
@@ -7844,10 +7450,8 @@
       <c r="R41" t="n">
         <v>1</v>
       </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S41" t="n">
+        <v>1</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -7855,23 +7459,17 @@
       <c r="U41" t="n">
         <v>2</v>
       </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V41" t="n">
+        <v>4</v>
       </c>
       <c r="W41" t="n">
         <v>13</v>
       </c>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="X41" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>7</v>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
@@ -7963,8 +7561,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>1704585600</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -8002,30 +7602,20 @@
       <c r="K42" t="n">
         <v>0.333</v>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="L42" t="n">
+        <v>2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
       </c>
       <c r="Q42" t="n">
         <v>4</v>
@@ -8033,10 +7623,8 @@
       <c r="R42" t="n">
         <v>8</v>
       </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S42" t="n">
+        <v>1</v>
       </c>
       <c r="T42" t="n">
         <v>1</v>
@@ -8044,23 +7632,17 @@
       <c r="U42" t="n">
         <v>1</v>
       </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="V42" t="n">
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>15</v>
       </c>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t>16.5</t>
-        </is>
-      </c>
-      <c r="Y42" t="inlineStr">
-        <is>
-          <t>+34</t>
-        </is>
+      <c r="X42" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>34</v>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
@@ -8152,8 +7734,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>1704412800</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-01-05</t>
+        </is>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -8189,30 +7773,20 @@
       <c r="K43" t="n">
         <v>0</v>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>.857</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="L43" t="n">
+        <v>6</v>
+      </c>
+      <c r="M43" t="n">
+        <v>7</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -8220,10 +7794,8 @@
       <c r="R43" t="n">
         <v>4</v>
       </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S43" t="n">
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -8231,23 +7803,17 @@
       <c r="U43" t="n">
         <v>2</v>
       </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V43" t="n">
+        <v>2</v>
       </c>
       <c r="W43" t="n">
         <v>12</v>
       </c>
-      <c r="X43" t="inlineStr">
-        <is>
-          <t>6.8</t>
-        </is>
-      </c>
-      <c r="Y43" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
+      <c r="X43" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>-12</v>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
@@ -8339,8 +7905,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>1704240000</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -8378,30 +7946,20 @@
       <c r="K44" t="n">
         <v>0.333</v>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>.800</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="L44" t="n">
+        <v>4</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
       </c>
       <c r="Q44" t="n">
         <v>4</v>
@@ -8409,10 +7967,8 @@
       <c r="R44" t="n">
         <v>7</v>
       </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="S44" t="n">
+        <v>2</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -8420,23 +7976,17 @@
       <c r="U44" t="n">
         <v>3</v>
       </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V44" t="n">
+        <v>3</v>
       </c>
       <c r="W44" t="n">
         <v>19</v>
       </c>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>17.6</t>
-        </is>
-      </c>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
+      <c r="X44" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>13</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
@@ -8528,8 +8078,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>1703980800</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2023-12-31</t>
+        </is>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -8565,30 +8117,20 @@
       <c r="K45" t="n">
         <v>0.571</v>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>.400</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="L45" t="n">
+        <v>2</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
       </c>
       <c r="Q45" t="n">
         <v>5</v>
@@ -8596,10 +8138,8 @@
       <c r="R45" t="n">
         <v>8</v>
       </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="S45" t="n">
+        <v>3</v>
       </c>
       <c r="T45" t="n">
         <v>2</v>
@@ -8607,23 +8147,17 @@
       <c r="U45" t="n">
         <v>3</v>
       </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V45" t="n">
+        <v>3</v>
       </c>
       <c r="W45" t="n">
         <v>26</v>
       </c>
-      <c r="X45" t="inlineStr">
-        <is>
-          <t>23.9</t>
-        </is>
-      </c>
-      <c r="Y45" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="X45" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>17</v>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
@@ -8715,8 +8249,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>1703548800</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
       </c>
       <c r="B46" t="n">
         <v>0</v>
@@ -8752,30 +8288,20 @@
       <c r="K46" t="n">
         <v>0.5</v>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="L46" t="n">
+        <v>4</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
       </c>
       <c r="Q46" t="n">
         <v>6</v>
@@ -8783,10 +8309,8 @@
       <c r="R46" t="n">
         <v>7</v>
       </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="S46" t="n">
+        <v>3</v>
       </c>
       <c r="T46" t="n">
         <v>4</v>
@@ -8794,23 +8318,17 @@
       <c r="U46" t="n">
         <v>3</v>
       </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V46" t="n">
+        <v>3</v>
       </c>
       <c r="W46" t="n">
         <v>24</v>
       </c>
-      <c r="X46" t="inlineStr">
-        <is>
-          <t>22.7</t>
-        </is>
-      </c>
-      <c r="Y46" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
+      <c r="X46" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>-7</v>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
@@ -8902,8 +8420,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>1703289600</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2023-12-23</t>
+        </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -8939,30 +8459,20 @@
       <c r="K47" t="n">
         <v>0</v>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>.778</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="L47" t="n">
+        <v>7</v>
+      </c>
+      <c r="M47" t="n">
+        <v>9</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
       </c>
       <c r="Q47" t="n">
         <v>3</v>
@@ -8970,10 +8480,8 @@
       <c r="R47" t="n">
         <v>5</v>
       </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S47" t="n">
+        <v>0</v>
       </c>
       <c r="T47" t="n">
         <v>2</v>
@@ -8981,23 +8489,17 @@
       <c r="U47" t="n">
         <v>0</v>
       </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V47" t="n">
+        <v>2</v>
       </c>
       <c r="W47" t="n">
         <v>19</v>
       </c>
-      <c r="X47" t="inlineStr">
-        <is>
-          <t>17.6</t>
-        </is>
-      </c>
-      <c r="Y47" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="X47" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>2</v>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
@@ -9089,8 +8591,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>1703116800</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2023-12-21</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -9128,30 +8632,20 @@
       <c r="K48" t="n">
         <v>0.333</v>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="L48" t="n">
+        <v>4</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" t="n">
+        <v>6</v>
       </c>
       <c r="Q48" t="n">
         <v>7</v>
@@ -9159,10 +8653,8 @@
       <c r="R48" t="n">
         <v>6</v>
       </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S48" t="n">
+        <v>0</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
@@ -9170,23 +8662,17 @@
       <c r="U48" t="n">
         <v>3</v>
       </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V48" t="n">
+        <v>2</v>
       </c>
       <c r="W48" t="n">
         <v>17</v>
       </c>
-      <c r="X48" t="inlineStr">
-        <is>
-          <t>13.9</t>
-        </is>
-      </c>
-      <c r="Y48" t="inlineStr">
-        <is>
-          <t>+12</t>
-        </is>
+      <c r="X48" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>12</v>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
@@ -9278,8 +8764,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>1702944000</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -9315,30 +8803,20 @@
       <c r="K49" t="n">
         <v>1</v>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>.917</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="L49" t="n">
+        <v>11</v>
+      </c>
+      <c r="M49" t="n">
+        <v>12</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
       </c>
       <c r="Q49" t="n">
         <v>4</v>
@@ -9346,10 +8824,8 @@
       <c r="R49" t="n">
         <v>6</v>
       </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="S49" t="n">
+        <v>2</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
@@ -9357,23 +8833,17 @@
       <c r="U49" t="n">
         <v>2</v>
       </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V49" t="n">
+        <v>4</v>
       </c>
       <c r="W49" t="n">
         <v>34</v>
       </c>
-      <c r="X49" t="inlineStr">
-        <is>
-          <t>29.6</t>
-        </is>
-      </c>
-      <c r="Y49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="X49" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
@@ -9465,8 +8935,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>1702771200</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2023-12-17</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -9504,30 +8976,20 @@
       <c r="K50" t="n">
         <v>0.714</v>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
       </c>
       <c r="Q50" t="n">
         <v>3</v>
@@ -9535,10 +8997,8 @@
       <c r="R50" t="n">
         <v>4</v>
       </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S50" t="n">
+        <v>1</v>
       </c>
       <c r="T50" t="n">
         <v>1</v>
@@ -9546,23 +9006,17 @@
       <c r="U50" t="n">
         <v>1</v>
       </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V50" t="n">
+        <v>1</v>
       </c>
       <c r="W50" t="n">
         <v>26</v>
       </c>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t>22.1</t>
-        </is>
-      </c>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>+23</t>
-        </is>
+      <c r="X50" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>23</v>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
@@ -9654,8 +9108,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>1702425600</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2023-12-13</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -9693,30 +9149,20 @@
       <c r="K51" t="n">
         <v>0.25</v>
       </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>.917</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="L51" t="n">
+        <v>11</v>
+      </c>
+      <c r="M51" t="n">
+        <v>12</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
       </c>
       <c r="Q51" t="n">
         <v>2</v>
@@ -9724,10 +9170,8 @@
       <c r="R51" t="n">
         <v>3</v>
       </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S51" t="n">
+        <v>0</v>
       </c>
       <c r="T51" t="n">
         <v>1</v>
@@ -9735,23 +9179,17 @@
       <c r="U51" t="n">
         <v>1</v>
       </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V51" t="n">
+        <v>2</v>
       </c>
       <c r="W51" t="n">
         <v>40</v>
       </c>
-      <c r="X51" t="inlineStr">
-        <is>
-          <t>31.1</t>
-        </is>
-      </c>
-      <c r="Y51" t="inlineStr">
-        <is>
-          <t>+12</t>
-        </is>
+      <c r="X51" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>12</v>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
@@ -9843,8 +9281,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>1702252800</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -9880,30 +9320,20 @@
       <c r="K52" t="n">
         <v>0.4</v>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>.889</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="L52" t="n">
+        <v>8</v>
+      </c>
+      <c r="M52" t="n">
+        <v>9</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
       </c>
       <c r="Q52" t="n">
         <v>3</v>
@@ -9911,10 +9341,8 @@
       <c r="R52" t="n">
         <v>5</v>
       </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S52" t="n">
+        <v>0</v>
       </c>
       <c r="T52" t="n">
         <v>0</v>
@@ -9922,23 +9350,17 @@
       <c r="U52" t="n">
         <v>4</v>
       </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V52" t="n">
+        <v>2</v>
       </c>
       <c r="W52" t="n">
         <v>20</v>
       </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>12.1</t>
-        </is>
-      </c>
-      <c r="Y52" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
+      <c r="X52" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>13</v>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
@@ -10030,8 +9452,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>1701907200</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -10069,30 +9493,20 @@
       <c r="K53" t="n">
         <v>0</v>
       </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>.500</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
       </c>
       <c r="Q53" t="n">
         <v>3</v>
@@ -10100,10 +9514,8 @@
       <c r="R53" t="n">
         <v>7</v>
       </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S53" t="n">
+        <v>0</v>
       </c>
       <c r="T53" t="n">
         <v>0</v>
@@ -10111,23 +9523,17 @@
       <c r="U53" t="n">
         <v>3</v>
       </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V53" t="n">
+        <v>3</v>
       </c>
       <c r="W53" t="n">
         <v>9</v>
       </c>
-      <c r="X53" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
-      </c>
-      <c r="Y53" t="inlineStr">
-        <is>
-          <t>-33</t>
-        </is>
+      <c r="X53" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>-33</v>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
@@ -10219,8 +9625,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>1701648000</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -10258,30 +9666,20 @@
       <c r="K54" t="n">
         <v>0.5</v>
       </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>.778</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="L54" t="n">
+        <v>7</v>
+      </c>
+      <c r="M54" t="n">
+        <v>9</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="O54" t="n">
+        <v>2</v>
+      </c>
+      <c r="P54" t="n">
+        <v>6</v>
       </c>
       <c r="Q54" t="n">
         <v>8</v>
@@ -10289,10 +9687,8 @@
       <c r="R54" t="n">
         <v>6</v>
       </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S54" t="n">
+        <v>1</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
@@ -10300,23 +9696,17 @@
       <c r="U54" t="n">
         <v>2</v>
       </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V54" t="n">
+        <v>2</v>
       </c>
       <c r="W54" t="n">
         <v>30</v>
       </c>
-      <c r="X54" t="inlineStr">
-        <is>
-          <t>24.8</t>
-        </is>
-      </c>
-      <c r="Y54" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="X54" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>3</v>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
@@ -10408,8 +9798,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>1701475200</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -10447,30 +9839,20 @@
       <c r="K55" t="n">
         <v>0</v>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>.500</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="L55" t="n">
+        <v>3</v>
+      </c>
+      <c r="M55" t="n">
+        <v>6</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>6</v>
       </c>
       <c r="Q55" t="n">
         <v>6</v>
@@ -10478,10 +9860,8 @@
       <c r="R55" t="n">
         <v>6</v>
       </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="S55" t="n">
+        <v>3</v>
       </c>
       <c r="T55" t="n">
         <v>0</v>
@@ -10489,23 +9869,17 @@
       <c r="U55" t="n">
         <v>2</v>
       </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V55" t="n">
+        <v>1</v>
       </c>
       <c r="W55" t="n">
         <v>23</v>
       </c>
-      <c r="X55" t="inlineStr">
-        <is>
-          <t>21.9</t>
-        </is>
-      </c>
-      <c r="Y55" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="X55" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1</v>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
@@ -10597,8 +9971,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>1701388800</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -10634,30 +10010,20 @@
       <c r="K56" t="n">
         <v>0</v>
       </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="L56" t="n">
+        <v>8</v>
+      </c>
+      <c r="M56" t="n">
+        <v>8</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
       </c>
       <c r="Q56" t="n">
         <v>5</v>
@@ -10665,10 +10031,8 @@
       <c r="R56" t="n">
         <v>7</v>
       </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S56" t="n">
+        <v>1</v>
       </c>
       <c r="T56" t="n">
         <v>0</v>
@@ -10676,23 +10040,17 @@
       <c r="U56" t="n">
         <v>4</v>
       </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V56" t="n">
+        <v>3</v>
       </c>
       <c r="W56" t="n">
         <v>14</v>
       </c>
-      <c r="X56" t="inlineStr">
-        <is>
-          <t>7.6</t>
-        </is>
-      </c>
-      <c r="Y56" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
+      <c r="X56" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>10</v>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
@@ -10784,8 +10142,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>1701216000</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -10821,30 +10181,20 @@
       <c r="K57" t="n">
         <v>0.5</v>
       </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="L57" t="n">
+        <v>5</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
       </c>
       <c r="Q57" t="n">
         <v>4</v>
@@ -10852,10 +10202,8 @@
       <c r="R57" t="n">
         <v>6</v>
       </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S57" t="n">
+        <v>1</v>
       </c>
       <c r="T57" t="n">
         <v>1</v>
@@ -10863,23 +10211,17 @@
       <c r="U57" t="n">
         <v>1</v>
       </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V57" t="n">
+        <v>1</v>
       </c>
       <c r="W57" t="n">
         <v>15</v>
       </c>
-      <c r="X57" t="inlineStr">
-        <is>
-          <t>17.4</t>
-        </is>
-      </c>
-      <c r="Y57" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
+      <c r="X57" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>10</v>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
@@ -10971,8 +10313,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>1700784000</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2023-11-24</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -11010,30 +10354,20 @@
       <c r="K58" t="n">
         <v>0.4</v>
       </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>.667</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="L58" t="n">
+        <v>4</v>
+      </c>
+      <c r="M58" t="n">
+        <v>6</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
       </c>
       <c r="Q58" t="n">
         <v>4</v>
@@ -11041,10 +10375,8 @@
       <c r="R58" t="n">
         <v>5</v>
       </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S58" t="n">
+        <v>0</v>
       </c>
       <c r="T58" t="n">
         <v>0</v>
@@ -11052,23 +10384,17 @@
       <c r="U58" t="n">
         <v>3</v>
       </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V58" t="n">
+        <v>3</v>
       </c>
       <c r="W58" t="n">
         <v>30</v>
       </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>19.8</t>
-        </is>
-      </c>
-      <c r="Y58" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
+      <c r="X58" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>13</v>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
@@ -11160,8 +10486,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>1700611200</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2023-11-22</t>
+        </is>
       </c>
       <c r="B59" t="n">
         <v>0</v>
@@ -11197,30 +10525,20 @@
       <c r="K59" t="n">
         <v>0.25</v>
       </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="L59" t="n">
+        <v>4</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
       </c>
       <c r="Q59" t="n">
         <v>4</v>
@@ -11228,10 +10546,8 @@
       <c r="R59" t="n">
         <v>3</v>
       </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S59" t="n">
+        <v>1</v>
       </c>
       <c r="T59" t="n">
         <v>0</v>
@@ -11239,23 +10555,17 @@
       <c r="U59" t="n">
         <v>2</v>
       </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="V59" t="n">
+        <v>5</v>
       </c>
       <c r="W59" t="n">
         <v>23</v>
       </c>
-      <c r="X59" t="inlineStr">
-        <is>
-          <t>14.3</t>
-        </is>
-      </c>
-      <c r="Y59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="X59" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0</v>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
@@ -11347,8 +10657,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>1700438400</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -11384,30 +10696,20 @@
       <c r="K60" t="n">
         <v>1</v>
       </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="L60" t="n">
+        <v>4</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
       </c>
       <c r="Q60" t="n">
         <v>4</v>
@@ -11415,10 +10717,8 @@
       <c r="R60" t="n">
         <v>3</v>
       </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S60" t="n">
+        <v>0</v>
       </c>
       <c r="T60" t="n">
         <v>0</v>
@@ -11426,23 +10726,17 @@
       <c r="U60" t="n">
         <v>1</v>
       </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="V60" t="n">
+        <v>0</v>
       </c>
       <c r="W60" t="n">
         <v>31</v>
       </c>
-      <c r="X60" t="inlineStr">
-        <is>
-          <t>25.1</t>
-        </is>
-      </c>
-      <c r="Y60" t="inlineStr">
-        <is>
-          <t>+33</t>
-        </is>
+      <c r="X60" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>33</v>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
@@ -11534,8 +10828,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>1700265600</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -11571,30 +10867,20 @@
       <c r="K61" t="n">
         <v>0.167</v>
       </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>.778</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="L61" t="n">
+        <v>7</v>
+      </c>
+      <c r="M61" t="n">
+        <v>9</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="O61" t="n">
+        <v>2</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
       </c>
       <c r="Q61" t="n">
         <v>7</v>
@@ -11602,10 +10888,8 @@
       <c r="R61" t="n">
         <v>4</v>
       </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S61" t="n">
+        <v>1</v>
       </c>
       <c r="T61" t="n">
         <v>0</v>
@@ -11613,23 +10897,17 @@
       <c r="U61" t="n">
         <v>4</v>
       </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="V61" t="n">
+        <v>0</v>
       </c>
       <c r="W61" t="n">
         <v>30</v>
       </c>
-      <c r="X61" t="inlineStr">
-        <is>
-          <t>19.5</t>
-        </is>
-      </c>
-      <c r="Y61" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="X61" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>3</v>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
@@ -11721,8 +10999,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>1700179200</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -11758,30 +11038,20 @@
       <c r="K62" t="n">
         <v>0.5</v>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
       </c>
       <c r="Q62" t="n">
         <v>3</v>
@@ -11789,10 +11059,8 @@
       <c r="R62" t="n">
         <v>8</v>
       </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S62" t="n">
+        <v>1</v>
       </c>
       <c r="T62" t="n">
         <v>0</v>
@@ -11800,23 +11068,17 @@
       <c r="U62" t="n">
         <v>2</v>
       </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V62" t="n">
+        <v>3</v>
       </c>
       <c r="W62" t="n">
         <v>21</v>
       </c>
-      <c r="X62" t="inlineStr">
-        <is>
-          <t>16.0</t>
-        </is>
-      </c>
-      <c r="Y62" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="X62" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>-5</v>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
@@ -11908,8 +11170,10 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>1699920000</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2023-11-14</t>
+        </is>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -11945,30 +11209,20 @@
       <c r="K63" t="n">
         <v>0.2</v>
       </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="L63" t="n">
+        <v>2</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1</v>
+      </c>
+      <c r="P63" t="n">
+        <v>8</v>
       </c>
       <c r="Q63" t="n">
         <v>9</v>
@@ -11976,10 +11230,8 @@
       <c r="R63" t="n">
         <v>7</v>
       </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="S63" t="n">
+        <v>2</v>
       </c>
       <c r="T63" t="n">
         <v>0</v>
@@ -11987,23 +11239,17 @@
       <c r="U63" t="n">
         <v>2</v>
       </c>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="V63" t="n">
+        <v>0</v>
       </c>
       <c r="W63" t="n">
         <v>25</v>
       </c>
-      <c r="X63" t="inlineStr">
-        <is>
-          <t>23.4</t>
-        </is>
-      </c>
-      <c r="Y63" t="inlineStr">
-        <is>
-          <t>+18</t>
-        </is>
+      <c r="X63" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>18</v>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
@@ -12095,8 +11341,10 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>1699747200</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2023-11-12</t>
+        </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -12132,30 +11380,20 @@
       <c r="K64" t="n">
         <v>0.333</v>
       </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>.250</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
       </c>
       <c r="Q64" t="n">
         <v>5</v>
@@ -12163,10 +11401,8 @@
       <c r="R64" t="n">
         <v>5</v>
       </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S64" t="n">
+        <v>0</v>
       </c>
       <c r="T64" t="n">
         <v>0</v>
@@ -12174,23 +11410,17 @@
       <c r="U64" t="n">
         <v>1</v>
       </c>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V64" t="n">
+        <v>2</v>
       </c>
       <c r="W64" t="n">
         <v>20</v>
       </c>
-      <c r="X64" t="inlineStr">
-        <is>
-          <t>13.7</t>
-        </is>
-      </c>
-      <c r="Y64" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="X64" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>-10</v>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
@@ -12282,8 +11512,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>1699401600</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2023-11-08</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -12321,30 +11553,20 @@
       <c r="K65" t="n">
         <v>0.167</v>
       </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
       </c>
       <c r="Q65" t="n">
         <v>3</v>
@@ -12352,10 +11574,8 @@
       <c r="R65" t="n">
         <v>6</v>
       </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S65" t="n">
+        <v>0</v>
       </c>
       <c r="T65" t="n">
         <v>0</v>
@@ -12363,23 +11583,17 @@
       <c r="U65" t="n">
         <v>2</v>
       </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V65" t="n">
+        <v>1</v>
       </c>
       <c r="W65" t="n">
         <v>24</v>
       </c>
-      <c r="X65" t="inlineStr">
-        <is>
-          <t>13.6</t>
-        </is>
-      </c>
-      <c r="Y65" t="inlineStr">
-        <is>
-          <t>-24</t>
-        </is>
+      <c r="X65" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>-24</v>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
@@ -12471,8 +11685,10 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>1698451200</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -12508,30 +11724,20 @@
       <c r="K66" t="n">
         <v>0.333</v>
       </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>.750</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="L66" t="n">
+        <v>3</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O66" t="n">
+        <v>2</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
       </c>
       <c r="Q66" t="n">
         <v>7</v>
@@ -12539,10 +11745,8 @@
       <c r="R66" t="n">
         <v>3</v>
       </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S66" t="n">
+        <v>1</v>
       </c>
       <c r="T66" t="n">
         <v>0</v>
@@ -12550,23 +11754,17 @@
       <c r="U66" t="n">
         <v>5</v>
       </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V66" t="n">
+        <v>4</v>
       </c>
       <c r="W66" t="n">
         <v>26</v>
       </c>
-      <c r="X66" t="inlineStr">
-        <is>
-          <t>17.5</t>
-        </is>
-      </c>
-      <c r="Y66" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="X66" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>5</v>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
@@ -12658,8 +11856,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>1698192000</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2023-10-25</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -12697,30 +11897,20 @@
       <c r="K67" t="n">
         <v>0</v>
       </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>.833</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="L67" t="n">
+        <v>5</v>
+      </c>
+      <c r="M67" t="n">
+        <v>6</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>7</v>
       </c>
       <c r="Q67" t="n">
         <v>7</v>
@@ -12728,10 +11918,8 @@
       <c r="R67" t="n">
         <v>6</v>
       </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="S67" t="n">
+        <v>2</v>
       </c>
       <c r="T67" t="n">
         <v>0</v>
@@ -12739,23 +11927,17 @@
       <c r="U67" t="n">
         <v>5</v>
       </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V67" t="n">
+        <v>3</v>
       </c>
       <c r="W67" t="n">
         <v>19</v>
       </c>
-      <c r="X67" t="inlineStr">
-        <is>
-          <t>10.9</t>
-        </is>
-      </c>
-      <c r="Y67" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="X67" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>-2</v>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
